--- a/data/223/SIDRA/Volume and nominal revenue indices from sales in retail trade by types of index.xlsx
+++ b/data/223/SIDRA/Volume and nominal revenue indices from sales in retail trade by types of index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>Tabela 3416 - Índices de volume e de receita nominal de vendas no comércio varejista, por tipos de índice (2014 = 100)</t>
   </si>
@@ -815,6 +815,15 @@
   </si>
   <si>
     <t>outubro 2021</t>
+  </si>
+  <si>
+    <t>novembro 2021</t>
+  </si>
+  <si>
+    <t>dezembro 2021</t>
+  </si>
+  <si>
+    <t>janeiro 2022</t>
   </si>
   <si>
     <t>Índice base fixa (2014=100)</t>
@@ -940,7 +949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:JD11"/>
+  <dimension ref="A1:JG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -948,7 +957,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="264" width="10"/>
+    <col min="1" max="267" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1744,6 +1753,15 @@
       <c r="JD1" s="1">
         <v/>
       </c>
+      <c r="JE1" s="1">
+        <v/>
+      </c>
+      <c r="JF1" s="1">
+        <v/>
+      </c>
+      <c r="JG1" s="1">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -2538,6 +2556,15 @@
       <c r="JD2" s="2">
         <v/>
       </c>
+      <c r="JE2" s="2">
+        <v/>
+      </c>
+      <c r="JF2" s="2">
+        <v/>
+      </c>
+      <c r="JG2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -3332,6 +3359,15 @@
       <c r="JD3" s="2">
         <v/>
       </c>
+      <c r="JE3" s="2">
+        <v/>
+      </c>
+      <c r="JF3" s="2">
+        <v/>
+      </c>
+      <c r="JG3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -4126,13 +4162,22 @@
       <c r="JD4" t="s" s="2">
         <v>266</v>
       </c>
+      <c r="JE4" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="JF4" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="JG4" t="s" s="2">
+        <v>269</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C5" s="4">
         <v>46.0</v>
@@ -4918,7 +4963,16 @@
         <v>93.0</v>
       </c>
       <c r="JD5" s="4">
-        <v>97.3</v>
+        <v>97.5</v>
+      </c>
+      <c r="JE5" s="4">
+        <v>104.0</v>
+      </c>
+      <c r="JF5" s="4">
+        <v>121.4</v>
+      </c>
+      <c r="JG5" s="4">
+        <v>91.8</v>
       </c>
     </row>
     <row r="6">
@@ -4926,7 +4980,7 @@
         <v/>
       </c>
       <c r="B6" t="s" s="3">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C6" s="4">
         <v>50.0</v>
@@ -5712,7 +5766,16 @@
         <v>83.5</v>
       </c>
       <c r="JD6" s="4">
-        <v>82.3</v>
+        <v>84.9</v>
+      </c>
+      <c r="JE6" s="4">
+        <v>95.0</v>
+      </c>
+      <c r="JF6" s="4">
+        <v>112.1</v>
+      </c>
+      <c r="JG6" s="4">
+        <v>83.7</v>
       </c>
     </row>
     <row r="7">
@@ -5720,7 +5783,7 @@
         <v/>
       </c>
       <c r="B7" t="s" s="3">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C7" s="4">
         <v>45.4</v>
@@ -6506,15 +6569,24 @@
         <v>94.8</v>
       </c>
       <c r="JD7" s="4">
-        <v>99.7</v>
+        <v>99.8</v>
+      </c>
+      <c r="JE7" s="4">
+        <v>106.8</v>
+      </c>
+      <c r="JF7" s="4">
+        <v>126.7</v>
+      </c>
+      <c r="JG7" s="4">
+        <v>94.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s" s="3">
         <v>271</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>268</v>
       </c>
       <c r="C8" s="4">
         <v>49.5</v>
@@ -6535,7 +6607,7 @@
         <v>50.5</v>
       </c>
       <c r="I8" s="4">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="J8" s="4">
         <v>50.3</v>
@@ -6562,7 +6634,7 @@
         <v>50.1</v>
       </c>
       <c r="R8" s="4">
-        <v>49.9</v>
+        <v>50.0</v>
       </c>
       <c r="S8" s="4">
         <v>49.5</v>
@@ -6571,7 +6643,7 @@
         <v>49.4</v>
       </c>
       <c r="U8" s="4">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="V8" s="4">
         <v>49.3</v>
@@ -6601,7 +6673,7 @@
         <v>49.8</v>
       </c>
       <c r="AE8" s="4">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="AF8" s="4">
         <v>48.9</v>
@@ -6649,7 +6721,7 @@
         <v>47.5</v>
       </c>
       <c r="AU8" s="4">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="AV8" s="4">
         <v>48.1</v>
@@ -6691,7 +6763,7 @@
         <v>52.4</v>
       </c>
       <c r="BI8" s="4">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="BJ8" s="4">
         <v>54.0</v>
@@ -6715,7 +6787,7 @@
         <v>54.5</v>
       </c>
       <c r="BQ8" s="4">
-        <v>55.0</v>
+        <v>55.1</v>
       </c>
       <c r="BR8" s="4">
         <v>54.8</v>
@@ -6739,7 +6811,7 @@
         <v>56.1</v>
       </c>
       <c r="BY8" s="4">
-        <v>55.9</v>
+        <v>56.0</v>
       </c>
       <c r="BZ8" s="4">
         <v>56.7</v>
@@ -6790,10 +6862,10 @@
         <v>63.1</v>
       </c>
       <c r="CP8" s="4">
-        <v>63.7</v>
+        <v>63.8</v>
       </c>
       <c r="CQ8" s="4">
-        <v>64.6</v>
+        <v>64.5</v>
       </c>
       <c r="CR8" s="4">
         <v>64.6</v>
@@ -6814,7 +6886,7 @@
         <v>67.8</v>
       </c>
       <c r="CX8" s="4">
-        <v>68.4</v>
+        <v>68.5</v>
       </c>
       <c r="CY8" s="4">
         <v>69.0</v>
@@ -6829,10 +6901,10 @@
         <v>70.1</v>
       </c>
       <c r="DC8" s="4">
-        <v>70.9</v>
+        <v>70.8</v>
       </c>
       <c r="DD8" s="4">
-        <v>70.3</v>
+        <v>70.4</v>
       </c>
       <c r="DE8" s="4">
         <v>69.6</v>
@@ -6859,13 +6931,13 @@
         <v>72.7</v>
       </c>
       <c r="DM8" s="4">
-        <v>73.1</v>
+        <v>73.2</v>
       </c>
       <c r="DN8" s="4">
         <v>73.6</v>
       </c>
       <c r="DO8" s="4">
-        <v>74.4</v>
+        <v>74.3</v>
       </c>
       <c r="DP8" s="4">
         <v>75.6</v>
@@ -6877,7 +6949,7 @@
         <v>76.3</v>
       </c>
       <c r="DS8" s="4">
-        <v>77.6</v>
+        <v>77.7</v>
       </c>
       <c r="DT8" s="4">
         <v>79.5</v>
@@ -6892,7 +6964,7 @@
         <v>80.0</v>
       </c>
       <c r="DX8" s="4">
-        <v>80.8</v>
+        <v>80.9</v>
       </c>
       <c r="DY8" s="4">
         <v>80.4</v>
@@ -6904,10 +6976,10 @@
         <v>83.0</v>
       </c>
       <c r="EB8" s="4">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="EC8" s="4">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="ED8" s="4">
         <v>84.0</v>
@@ -6925,7 +6997,7 @@
         <v>85.4</v>
       </c>
       <c r="EI8" s="4">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="EJ8" s="4">
         <v>86.4</v>
@@ -6970,7 +7042,7 @@
         <v>94.6</v>
       </c>
       <c r="EX8" s="4">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="EY8" s="4">
         <v>94.9</v>
@@ -6979,7 +7051,7 @@
         <v>95.1</v>
       </c>
       <c r="FA8" s="4">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="FB8" s="4">
         <v>95.1</v>
@@ -7003,7 +7075,7 @@
         <v>96.9</v>
       </c>
       <c r="FI8" s="4">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="FJ8" s="4">
         <v>99.8</v>
@@ -7015,7 +7087,7 @@
         <v>99.6</v>
       </c>
       <c r="FM8" s="4">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="FN8" s="4">
         <v>100.3</v>
@@ -7039,13 +7111,13 @@
         <v>99.3</v>
       </c>
       <c r="FU8" s="4">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="FV8" s="4">
+        <v>100.2</v>
+      </c>
+      <c r="FW8" s="4">
         <v>100.1</v>
-      </c>
-      <c r="FW8" s="4">
-        <v>100.2</v>
       </c>
       <c r="FX8" s="4">
         <v>101.0</v>
@@ -7054,10 +7126,10 @@
         <v>100.8</v>
       </c>
       <c r="FZ8" s="4">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="GA8" s="4">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="GB8" s="4">
         <v>99.0</v>
@@ -7114,16 +7186,16 @@
         <v>89.2</v>
       </c>
       <c r="GT8" s="4">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="GU8" s="4">
         <v>87.8</v>
       </c>
       <c r="GV8" s="4">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="GW8" s="4">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="GX8" s="4">
         <v>87.3</v>
@@ -7135,7 +7207,7 @@
         <v>91.3</v>
       </c>
       <c r="HA8" s="4">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="HB8" s="4">
         <v>91.4</v>
@@ -7153,16 +7225,16 @@
         <v>91.5</v>
       </c>
       <c r="HG8" s="4">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
       <c r="HH8" s="4">
         <v>91.9</v>
       </c>
       <c r="HI8" s="4">
-        <v>92.0</v>
+        <v>91.9</v>
       </c>
       <c r="HJ8" s="4">
-        <v>92.0</v>
+        <v>92.2</v>
       </c>
       <c r="HK8" s="4">
         <v>93.1</v>
@@ -7174,7 +7246,7 @@
         <v>94.8</v>
       </c>
       <c r="HN8" s="4">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="HO8" s="4">
         <v>93.7</v>
@@ -7183,31 +7255,31 @@
         <v>92.9</v>
       </c>
       <c r="HQ8" s="4">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="HR8" s="4">
         <v>94.3</v>
       </c>
       <c r="HS8" s="4">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="HT8" s="4">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="HU8" s="4">
-        <v>95.6</v>
+        <v>95.3</v>
       </c>
       <c r="HV8" s="4">
-        <v>93.3</v>
+        <v>93.6</v>
       </c>
       <c r="HW8" s="4">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="HX8" s="4">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="HY8" s="4">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="HZ8" s="4">
         <v>94.7</v>
@@ -7216,91 +7288,100 @@
         <v>93.9</v>
       </c>
       <c r="IB8" s="4">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="IC8" s="4">
         <v>94.3</v>
       </c>
       <c r="ID8" s="4">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="IE8" s="4">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="IF8" s="4">
-        <v>96.7</v>
+        <v>96.4</v>
       </c>
       <c r="IG8" s="4">
-        <v>97.5</v>
+        <v>96.9</v>
       </c>
       <c r="IH8" s="4">
-        <v>97.1</v>
+        <v>97.7</v>
       </c>
       <c r="II8" s="4">
-        <v>96.6</v>
+        <v>96.8</v>
       </c>
       <c r="IJ8" s="4">
-        <v>97.0</v>
+        <v>97.2</v>
       </c>
       <c r="IK8" s="4">
         <v>96.0</v>
       </c>
       <c r="IL8" s="4">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="IM8" s="4">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="IN8" s="4">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="IO8" s="4">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="IP8" s="4">
-        <v>101.2</v>
+        <v>101.0</v>
       </c>
       <c r="IQ8" s="4">
-        <v>102.4</v>
+        <v>102.2</v>
       </c>
       <c r="IR8" s="4">
-        <v>103.2</v>
+        <v>102.9</v>
       </c>
       <c r="IS8" s="4">
-        <v>103.5</v>
+        <v>102.5</v>
       </c>
       <c r="IT8" s="4">
-        <v>97.1</v>
+        <v>98.2</v>
       </c>
       <c r="IU8" s="4">
-        <v>97.0</v>
+        <v>97.3</v>
       </c>
       <c r="IV8" s="4">
-        <v>97.6</v>
+        <v>98.0</v>
       </c>
       <c r="IW8" s="4">
-        <v>96.1</v>
+        <v>96.3</v>
       </c>
       <c r="IX8" s="4">
         <v>98.4</v>
       </c>
       <c r="IY8" s="4">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="IZ8" s="4">
-        <v>99.2</v>
+        <v>99.0</v>
       </c>
       <c r="JA8" s="4">
-        <v>102.3</v>
+        <v>102.6</v>
       </c>
       <c r="JB8" s="4">
-        <v>98.1</v>
+        <v>97.8</v>
       </c>
       <c r="JC8" s="4">
-        <v>97.0</v>
+        <v>96.8</v>
       </c>
       <c r="JD8" s="4">
-        <v>96.9</v>
+        <v>96.8</v>
+      </c>
+      <c r="JE8" s="4">
+        <v>97.2</v>
+      </c>
+      <c r="JF8" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="JG8" s="4">
+        <v>96.2</v>
       </c>
     </row>
     <row r="9">
@@ -7308,7 +7389,7 @@
         <v/>
       </c>
       <c r="B9" t="s" s="3">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C9" s="4">
         <v>53.8</v>
@@ -7317,7 +7398,7 @@
         <v>54.3</v>
       </c>
       <c r="E9" s="4">
-        <v>55.0</v>
+        <v>55.1</v>
       </c>
       <c r="F9" s="4">
         <v>58.0</v>
@@ -7335,10 +7416,10 @@
         <v>58.4</v>
       </c>
       <c r="K9" s="4">
-        <v>58.1</v>
+        <v>58.2</v>
       </c>
       <c r="L9" s="4">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="M9" s="4">
         <v>57.8</v>
@@ -7356,7 +7437,7 @@
         <v>56.9</v>
       </c>
       <c r="R9" s="4">
-        <v>56.2</v>
+        <v>56.1</v>
       </c>
       <c r="S9" s="4">
         <v>55.3</v>
@@ -7374,16 +7455,16 @@
         <v>56.8</v>
       </c>
       <c r="X9" s="4">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="Y9" s="4">
         <v>56.1</v>
       </c>
       <c r="Z9" s="4">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="AA9" s="4">
-        <v>58.5</v>
+        <v>58.6</v>
       </c>
       <c r="AB9" s="4">
         <v>56.7</v>
@@ -7392,13 +7473,13 @@
         <v>57.9</v>
       </c>
       <c r="AD9" s="4">
-        <v>57.4</v>
+        <v>57.3</v>
       </c>
       <c r="AE9" s="4">
-        <v>58.3</v>
+        <v>58.4</v>
       </c>
       <c r="AF9" s="4">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="AG9" s="4">
         <v>56.9</v>
@@ -7407,7 +7488,7 @@
         <v>56.7</v>
       </c>
       <c r="AI9" s="4">
-        <v>56.2</v>
+        <v>56.1</v>
       </c>
       <c r="AJ9" s="4">
         <v>56.9</v>
@@ -7416,10 +7497,10 @@
         <v>56.6</v>
       </c>
       <c r="AL9" s="4">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="AM9" s="4">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="AN9" s="4">
         <v>55.6</v>
@@ -7434,7 +7515,7 @@
         <v>49.7</v>
       </c>
       <c r="AR9" s="4">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="AS9" s="4">
         <v>52.7</v>
@@ -7443,7 +7524,7 @@
         <v>51.9</v>
       </c>
       <c r="AU9" s="4">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="AV9" s="4">
         <v>53.1</v>
@@ -7455,7 +7536,7 @@
         <v>53.8</v>
       </c>
       <c r="AY9" s="4">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="AZ9" s="4">
         <v>55.3</v>
@@ -7467,7 +7548,7 @@
         <v>56.0</v>
       </c>
       <c r="BC9" s="4">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="BD9" s="4">
         <v>56.8</v>
@@ -7476,7 +7557,7 @@
         <v>56.0</v>
       </c>
       <c r="BF9" s="4">
-        <v>57.3</v>
+        <v>57.2</v>
       </c>
       <c r="BG9" s="4">
         <v>56.0</v>
@@ -7485,10 +7566,10 @@
         <v>57.1</v>
       </c>
       <c r="BI9" s="4">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="BJ9" s="4">
-        <v>57.7</v>
+        <v>57.8</v>
       </c>
       <c r="BK9" s="4">
         <v>56.3</v>
@@ -7500,7 +7581,7 @@
         <v>58.1</v>
       </c>
       <c r="BN9" s="4">
-        <v>58.9</v>
+        <v>59.0</v>
       </c>
       <c r="BO9" s="4">
         <v>58.3</v>
@@ -7512,7 +7593,7 @@
         <v>59.9</v>
       </c>
       <c r="BR9" s="4">
-        <v>59.3</v>
+        <v>59.2</v>
       </c>
       <c r="BS9" s="4">
         <v>59.1</v>
@@ -7521,19 +7602,19 @@
         <v>58.9</v>
       </c>
       <c r="BU9" s="4">
-        <v>59.0</v>
+        <v>59.1</v>
       </c>
       <c r="BV9" s="4">
+        <v>60.4</v>
+      </c>
+      <c r="BW9" s="4">
         <v>60.3</v>
-      </c>
-      <c r="BW9" s="4">
-        <v>60.4</v>
       </c>
       <c r="BX9" s="4">
         <v>61.3</v>
       </c>
       <c r="BY9" s="4">
-        <v>60.6</v>
+        <v>60.7</v>
       </c>
       <c r="BZ9" s="4">
         <v>61.9</v>
@@ -7545,7 +7626,7 @@
         <v>61.6</v>
       </c>
       <c r="CC9" s="4">
-        <v>60.5</v>
+        <v>60.4</v>
       </c>
       <c r="CD9" s="4">
         <v>62.7</v>
@@ -7572,7 +7653,7 @@
         <v>64.8</v>
       </c>
       <c r="CL9" s="4">
-        <v>65.2</v>
+        <v>65.1</v>
       </c>
       <c r="CM9" s="4">
         <v>65.8</v>
@@ -7581,34 +7662,34 @@
         <v>65.4</v>
       </c>
       <c r="CO9" s="4">
-        <v>65.9</v>
+        <v>65.8</v>
       </c>
       <c r="CP9" s="4">
-        <v>67.0</v>
+        <v>67.1</v>
       </c>
       <c r="CQ9" s="4">
         <v>67.5</v>
       </c>
       <c r="CR9" s="4">
-        <v>67.1</v>
+        <v>67.0</v>
       </c>
       <c r="CS9" s="4">
-        <v>68.3</v>
+        <v>68.4</v>
       </c>
       <c r="CT9" s="4">
-        <v>69.0</v>
+        <v>68.9</v>
       </c>
       <c r="CU9" s="4">
-        <v>69.8</v>
+        <v>69.9</v>
       </c>
       <c r="CV9" s="4">
-        <v>67.4</v>
+        <v>67.5</v>
       </c>
       <c r="CW9" s="4">
-        <v>69.6</v>
+        <v>69.5</v>
       </c>
       <c r="CX9" s="4">
-        <v>71.1</v>
+        <v>71.2</v>
       </c>
       <c r="CY9" s="4">
         <v>71.7</v>
@@ -7623,10 +7704,10 @@
         <v>71.7</v>
       </c>
       <c r="DC9" s="4">
-        <v>72.0</v>
+        <v>71.9</v>
       </c>
       <c r="DD9" s="4">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="DE9" s="4">
         <v>70.6</v>
@@ -7644,34 +7725,34 @@
         <v>74.2</v>
       </c>
       <c r="DJ9" s="4">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="DK9" s="4">
         <v>73.1</v>
       </c>
       <c r="DL9" s="4">
-        <v>74.8</v>
+        <v>74.7</v>
       </c>
       <c r="DM9" s="4">
-        <v>75.1</v>
+        <v>75.2</v>
       </c>
       <c r="DN9" s="4">
-        <v>75.7</v>
+        <v>75.6</v>
       </c>
       <c r="DO9" s="4">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="DP9" s="4">
         <v>77.2</v>
       </c>
       <c r="DQ9" s="4">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="DR9" s="4">
-        <v>77.6</v>
+        <v>77.7</v>
       </c>
       <c r="DS9" s="4">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="DT9" s="4">
         <v>82.0</v>
@@ -7680,10 +7761,10 @@
         <v>80.5</v>
       </c>
       <c r="DV9" s="4">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="DW9" s="4">
-        <v>81.1</v>
+        <v>81.0</v>
       </c>
       <c r="DX9" s="4">
         <v>82.9</v>
@@ -7692,10 +7773,10 @@
         <v>81.6</v>
       </c>
       <c r="DZ9" s="4">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="EA9" s="4">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="EB9" s="4">
         <v>86.4</v>
@@ -7704,55 +7785,55 @@
         <v>85.0</v>
       </c>
       <c r="ED9" s="4">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="EE9" s="4">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="EF9" s="4">
         <v>87.7</v>
       </c>
       <c r="EG9" s="4">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="EH9" s="4">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="EI9" s="4">
-        <v>90.1</v>
+        <v>89.9</v>
       </c>
       <c r="EJ9" s="4">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="EK9" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="EL9" s="4">
         <v>88.3</v>
-      </c>
-      <c r="EL9" s="4">
-        <v>88.4</v>
       </c>
       <c r="EM9" s="4">
         <v>89.3</v>
       </c>
       <c r="EN9" s="4">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="EO9" s="4">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="EP9" s="4">
         <v>89.0</v>
       </c>
       <c r="EQ9" s="4">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="ER9" s="4">
         <v>90.5</v>
       </c>
       <c r="ES9" s="4">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="ET9" s="4">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="EU9" s="4">
         <v>91.0</v>
@@ -7761,10 +7842,10 @@
         <v>93.1</v>
       </c>
       <c r="EW9" s="4">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="EX9" s="4">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="EY9" s="4">
         <v>92.4</v>
@@ -7773,25 +7854,25 @@
         <v>92.9</v>
       </c>
       <c r="FA9" s="4">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="FB9" s="4">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="FC9" s="4">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="FD9" s="4">
         <v>94.6</v>
       </c>
       <c r="FE9" s="4">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="FF9" s="4">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="FG9" s="4">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="FH9" s="4">
         <v>95.1</v>
@@ -7806,19 +7887,19 @@
         <v>98.0</v>
       </c>
       <c r="FL9" s="4">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="FM9" s="4">
         <v>98.7</v>
       </c>
       <c r="FN9" s="4">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="FO9" s="4">
         <v>98.4</v>
       </c>
       <c r="FP9" s="4">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="FQ9" s="4">
         <v>98.2</v>
@@ -7827,10 +7908,10 @@
         <v>100.2</v>
       </c>
       <c r="FS9" s="4">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="FT9" s="4">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="FU9" s="4">
         <v>99.8</v>
@@ -7839,19 +7920,19 @@
         <v>101.3</v>
       </c>
       <c r="FW9" s="4">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="FX9" s="4">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="FY9" s="4">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="FZ9" s="4">
         <v>100.1</v>
       </c>
       <c r="GA9" s="4">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="GB9" s="4">
         <v>101.1</v>
@@ -7866,184 +7947,184 @@
         <v>98.2</v>
       </c>
       <c r="GF9" s="4">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="GG9" s="4">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="GH9" s="4">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="GI9" s="4">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="GJ9" s="4">
         <v>95.9</v>
       </c>
       <c r="GK9" s="4">
-        <v>95.3</v>
+        <v>95.0</v>
       </c>
       <c r="GL9" s="4">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="GM9" s="4">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="GN9" s="4">
         <v>91.4</v>
       </c>
       <c r="GO9" s="4">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="GP9" s="4">
         <v>89.9</v>
       </c>
       <c r="GQ9" s="4">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="GR9" s="4">
-        <v>90.3</v>
+        <v>90.6</v>
       </c>
       <c r="GS9" s="4">
         <v>86.1</v>
       </c>
       <c r="GT9" s="4">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="GU9" s="4">
         <v>87.6</v>
       </c>
       <c r="GV9" s="4">
+        <v>87.1</v>
+      </c>
+      <c r="GW9" s="4">
+        <v>87.3</v>
+      </c>
+      <c r="GX9" s="4">
+        <v>87.6</v>
+      </c>
+      <c r="GY9" s="4">
+        <v>87.9</v>
+      </c>
+      <c r="GZ9" s="4">
+        <v>88.7</v>
+      </c>
+      <c r="HA9" s="4">
+        <v>86.8</v>
+      </c>
+      <c r="HB9" s="4">
+        <v>87.3</v>
+      </c>
+      <c r="HC9" s="4">
+        <v>88.1</v>
+      </c>
+      <c r="HD9" s="4">
+        <v>88.0</v>
+      </c>
+      <c r="HE9" s="4">
+        <v>87.0</v>
+      </c>
+      <c r="HF9" s="4">
         <v>87.2</v>
-      </c>
-      <c r="GW9" s="4">
-        <v>87.7</v>
-      </c>
-      <c r="GX9" s="4">
-        <v>87.5</v>
-      </c>
-      <c r="GY9" s="4">
-        <v>88.0</v>
-      </c>
-      <c r="GZ9" s="4">
-        <v>88.6</v>
-      </c>
-      <c r="HA9" s="4">
-        <v>86.6</v>
-      </c>
-      <c r="HB9" s="4">
-        <v>87.2</v>
-      </c>
-      <c r="HC9" s="4">
-        <v>88.0</v>
-      </c>
-      <c r="HD9" s="4">
-        <v>87.7</v>
-      </c>
-      <c r="HE9" s="4">
-        <v>87.2</v>
-      </c>
-      <c r="HF9" s="4">
-        <v>87.3</v>
       </c>
       <c r="HG9" s="4">
         <v>88.7</v>
       </c>
       <c r="HH9" s="4">
-        <v>87.9</v>
+        <v>87.7</v>
       </c>
       <c r="HI9" s="4">
-        <v>86.9</v>
+        <v>86.0</v>
       </c>
       <c r="HJ9" s="4">
-        <v>86.3</v>
+        <v>86.7</v>
       </c>
       <c r="HK9" s="4">
         <v>88.0</v>
       </c>
       <c r="HL9" s="4">
+        <v>87.8</v>
+      </c>
+      <c r="HM9" s="4">
+        <v>90.3</v>
+      </c>
+      <c r="HN9" s="4">
+        <v>90.7</v>
+      </c>
+      <c r="HO9" s="4">
+        <v>89.0</v>
+      </c>
+      <c r="HP9" s="4">
+        <v>87.2</v>
+      </c>
+      <c r="HQ9" s="4">
+        <v>84.6</v>
+      </c>
+      <c r="HR9" s="4">
         <v>87.6</v>
-      </c>
-      <c r="HM9" s="4">
-        <v>90.1</v>
-      </c>
-      <c r="HN9" s="4">
-        <v>90.5</v>
-      </c>
-      <c r="HO9" s="4">
-        <v>88.8</v>
-      </c>
-      <c r="HP9" s="4">
-        <v>87.0</v>
-      </c>
-      <c r="HQ9" s="4">
-        <v>84.8</v>
-      </c>
-      <c r="HR9" s="4">
-        <v>87.7</v>
       </c>
       <c r="HS9" s="4">
         <v>86.8</v>
       </c>
       <c r="HT9" s="4">
-        <v>87.6</v>
+        <v>87.2</v>
       </c>
       <c r="HU9" s="4">
-        <v>91.1</v>
+        <v>89.4</v>
       </c>
       <c r="HV9" s="4">
-        <v>87.2</v>
+        <v>88.1</v>
       </c>
       <c r="HW9" s="4">
-        <v>88.6</v>
+        <v>88.8</v>
       </c>
       <c r="HX9" s="4">
-        <v>88.4</v>
+        <v>88.8</v>
       </c>
       <c r="HY9" s="4">
-        <v>90.8</v>
+        <v>91.2</v>
       </c>
       <c r="HZ9" s="4">
+        <v>87.1</v>
+      </c>
+      <c r="IA9" s="4">
+        <v>86.0</v>
+      </c>
+      <c r="IB9" s="4">
+        <v>86.2</v>
+      </c>
+      <c r="IC9" s="4">
         <v>86.8</v>
       </c>
-      <c r="IA9" s="4">
-        <v>85.6</v>
-      </c>
-      <c r="IB9" s="4">
-        <v>86.1</v>
-      </c>
-      <c r="IC9" s="4">
-        <v>86.9</v>
-      </c>
       <c r="ID9" s="4">
-        <v>87.4</v>
+        <v>87.0</v>
       </c>
       <c r="IE9" s="4">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="IF9" s="4">
-        <v>90.0</v>
+        <v>89.2</v>
       </c>
       <c r="IG9" s="4">
-        <v>90.2</v>
+        <v>87.9</v>
       </c>
       <c r="IH9" s="4">
-        <v>91.8</v>
+        <v>93.4</v>
       </c>
       <c r="II9" s="4">
-        <v>91.3</v>
+        <v>91.6</v>
       </c>
       <c r="IJ9" s="4">
-        <v>92.9</v>
+        <v>93.5</v>
       </c>
       <c r="IK9" s="4">
-        <v>86.3</v>
+        <v>86.7</v>
       </c>
       <c r="IL9" s="4">
-        <v>71.7</v>
+        <v>72.2</v>
       </c>
       <c r="IM9" s="4">
-        <v>79.5</v>
+        <v>79.9</v>
       </c>
       <c r="IN9" s="4">
         <v>86.6</v>
@@ -8052,49 +8133,58 @@
         <v>90.9</v>
       </c>
       <c r="IP9" s="4">
-        <v>95.2</v>
+        <v>94.6</v>
       </c>
       <c r="IQ9" s="4">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="IR9" s="4">
-        <v>95.1</v>
+        <v>93.7</v>
       </c>
       <c r="IS9" s="4">
-        <v>98.1</v>
+        <v>94.9</v>
       </c>
       <c r="IT9" s="4">
-        <v>89.7</v>
+        <v>91.9</v>
       </c>
       <c r="IU9" s="4">
-        <v>89.2</v>
+        <v>89.5</v>
       </c>
       <c r="IV9" s="4">
-        <v>89.2</v>
+        <v>89.9</v>
       </c>
       <c r="IW9" s="4">
-        <v>89.4</v>
+        <v>90.0</v>
       </c>
       <c r="IX9" s="4">
-        <v>91.3</v>
+        <v>91.8</v>
       </c>
       <c r="IY9" s="4">
-        <v>92.6</v>
+        <v>93.0</v>
       </c>
       <c r="IZ9" s="4">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="JA9" s="4">
-        <v>90.1</v>
+        <v>89.9</v>
       </c>
       <c r="JB9" s="4">
-        <v>88.0</v>
+        <v>87.4</v>
       </c>
       <c r="JC9" s="4">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="JD9" s="4">
-        <v>85.3</v>
+        <v>86.5</v>
+      </c>
+      <c r="JE9" s="4">
+        <v>88.3</v>
+      </c>
+      <c r="JF9" s="4">
+        <v>86.3</v>
+      </c>
+      <c r="JG9" s="4">
+        <v>88.9</v>
       </c>
     </row>
     <row r="10">
@@ -8102,7 +8192,7 @@
         <v/>
       </c>
       <c r="B10" t="s" s="3">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C10" s="4">
         <v>49.2</v>
@@ -8189,7 +8279,7 @@
         <v>48.7</v>
       </c>
       <c r="AE10" s="4">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="AF10" s="4">
         <v>48.0</v>
@@ -8201,7 +8291,7 @@
         <v>48.3</v>
       </c>
       <c r="AI10" s="4">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="AJ10" s="4">
         <v>48.8</v>
@@ -8279,7 +8369,7 @@
         <v>50.5</v>
       </c>
       <c r="BI10" s="4">
-        <v>50.7</v>
+        <v>50.6</v>
       </c>
       <c r="BJ10" s="4">
         <v>52.0</v>
@@ -8312,7 +8402,7 @@
         <v>50.8</v>
       </c>
       <c r="BT10" s="4">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="BU10" s="4">
         <v>52.1</v>
@@ -8444,7 +8534,7 @@
         <v>72.6</v>
       </c>
       <c r="DL10" s="4">
-        <v>73.9</v>
+        <v>74.0</v>
       </c>
       <c r="DM10" s="4">
         <v>74.1</v>
@@ -8462,7 +8552,7 @@
         <v>77.3</v>
       </c>
       <c r="DR10" s="4">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="DS10" s="4">
         <v>78.6</v>
@@ -8495,7 +8585,7 @@
         <v>83.1</v>
       </c>
       <c r="EC10" s="4">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="ED10" s="4">
         <v>83.8</v>
@@ -8516,7 +8606,7 @@
         <v>86.2</v>
       </c>
       <c r="EJ10" s="4">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="EK10" s="4">
         <v>87.0</v>
@@ -8585,7 +8675,7 @@
         <v>95.7</v>
       </c>
       <c r="FG10" s="4">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="FH10" s="4">
         <v>98.0</v>
@@ -8603,7 +8693,7 @@
         <v>101.6</v>
       </c>
       <c r="FM10" s="4">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="FN10" s="4">
         <v>101.1</v>
@@ -8621,10 +8711,10 @@
         <v>100.5</v>
       </c>
       <c r="FS10" s="4">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="FT10" s="4">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="FU10" s="4">
         <v>98.7</v>
@@ -8633,7 +8723,7 @@
         <v>99.5</v>
       </c>
       <c r="FW10" s="4">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="FX10" s="4">
         <v>100.0</v>
@@ -8648,7 +8738,7 @@
         <v>100.8</v>
       </c>
       <c r="GB10" s="4">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="GC10" s="4">
         <v>99.2</v>
@@ -8663,7 +8753,7 @@
         <v>95.7</v>
       </c>
       <c r="GG10" s="4">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="GH10" s="4">
         <v>93.0</v>
@@ -8741,13 +8831,13 @@
         <v>92.0</v>
       </c>
       <c r="HG10" s="4">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="HH10" s="4">
         <v>93.4</v>
       </c>
       <c r="HI10" s="4">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="HJ10" s="4">
         <v>94.7</v>
@@ -8756,7 +8846,7 @@
         <v>94.7</v>
       </c>
       <c r="HL10" s="4">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="HM10" s="4">
         <v>94.5</v>
@@ -8774,22 +8864,22 @@
         <v>94.9</v>
       </c>
       <c r="HR10" s="4">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="HS10" s="4">
         <v>95.6</v>
       </c>
       <c r="HT10" s="4">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="HU10" s="4">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="HV10" s="4">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="HW10" s="4">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="HX10" s="4">
         <v>97.5</v>
@@ -8798,7 +8888,7 @@
         <v>96.4</v>
       </c>
       <c r="HZ10" s="4">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="IA10" s="4">
         <v>96.7</v>
@@ -8816,84 +8906,93 @@
         <v>98.5</v>
       </c>
       <c r="IF10" s="4">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="IG10" s="4">
-        <v>99.8</v>
+        <v>99.6</v>
       </c>
       <c r="IH10" s="4">
-        <v>100.8</v>
+        <v>101.0</v>
       </c>
       <c r="II10" s="4">
-        <v>99.7</v>
+        <v>99.9</v>
       </c>
       <c r="IJ10" s="4">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="IK10" s="4">
         <v>102.9</v>
       </c>
       <c r="IL10" s="4">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="IM10" s="4">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="IN10" s="4">
-        <v>95.9</v>
+        <v>95.7</v>
       </c>
       <c r="IO10" s="4">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="IP10" s="4">
         <v>101.1</v>
       </c>
       <c r="IQ10" s="4">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="IR10" s="4">
-        <v>104.0</v>
+        <v>104.2</v>
       </c>
       <c r="IS10" s="4">
-        <v>103.6</v>
+        <v>103.2</v>
       </c>
       <c r="IT10" s="4">
+        <v>101.8</v>
+      </c>
+      <c r="IU10" s="4">
+        <v>100.7</v>
+      </c>
+      <c r="IV10" s="4">
+        <v>103.3</v>
+      </c>
+      <c r="IW10" s="4">
         <v>101.6</v>
       </c>
-      <c r="IU10" s="4">
-        <v>100.3</v>
-      </c>
-      <c r="IV10" s="4">
-        <v>103.4</v>
-      </c>
-      <c r="IW10" s="4">
-        <v>101.7</v>
-      </c>
       <c r="IX10" s="4">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="IY10" s="4">
-        <v>104.9</v>
+        <v>104.7</v>
       </c>
       <c r="IZ10" s="4">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="JA10" s="4">
         <v>104.2</v>
       </c>
       <c r="JB10" s="4">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="JC10" s="4">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="JD10" s="4">
-        <v>98.3</v>
+        <v>98.7</v>
+      </c>
+      <c r="JE10" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="JF10" s="4">
+        <v>99.1</v>
+      </c>
+      <c r="JG10" s="4">
+        <v>99.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B11" s="2">
         <v/>
@@ -9682,19 +9781,28 @@
         <v/>
       </c>
       <c r="JD11" s="2">
+        <v/>
+      </c>
+      <c r="JE11" s="2">
+        <v/>
+      </c>
+      <c r="JF11" s="2">
+        <v/>
+      </c>
+      <c r="JG11" s="2">
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:JD1"/>
-    <mergeCell ref="A2:JD2"/>
+    <mergeCell ref="A1:JG1"/>
+    <mergeCell ref="A2:JG2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:JD3"/>
+    <mergeCell ref="C3:JG3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:JD11"/>
+    <mergeCell ref="A11:JG11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
